--- a/analyze/工作簿1.xlsx
+++ b/analyze/工作簿1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\resumeAnalysis\analyze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80E2E0B6-0E1F-4E02-AB47-D23922EF5D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D216931B-8138-460B-9FEB-9B692F590B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="1815" windowWidth="24570" windowHeight="13110" xr2:uid="{6338A63B-8DEF-4F13-AFAE-CA15AD579159}"/>
+    <workbookView xWindow="3645" yWindow="1740" windowWidth="24570" windowHeight="13110" xr2:uid="{6338A63B-8DEF-4F13-AFAE-CA15AD579159}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>林雅南</t>
-  </si>
-  <si>
-    <t>linyanan@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="255">
   <si>
     <t>本科</t>
   </si>
   <si>
-    <t>华南师范大学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>work_years</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +59,920 @@
   </si>
   <si>
     <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+  </si>
+  <si>
+    <t>黎芸贵</t>
+  </si>
+  <si>
+    <t>service@500d.me</t>
+  </si>
+  <si>
+    <t>service@500d.me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑伊雯</t>
+  </si>
+  <si>
+    <t>nesson@91muban.cn</t>
+  </si>
+  <si>
+    <t>博士</t>
+  </si>
+  <si>
+    <t>华中农业大学</t>
+  </si>
+  <si>
+    <t>雷进宝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中国地质大学 </t>
+  </si>
+  <si>
+    <t>吴美隆</t>
+  </si>
+  <si>
+    <t>nesson@91muban.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 湖南大学   </t>
+  </si>
+  <si>
+    <t>吴心真</t>
+  </si>
+  <si>
+    <t>博士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中南大学</t>
+  </si>
+  <si>
+    <t>王美珠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">湖南师范大学 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭芳天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">service@500d.me </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海外国语大学 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雅惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianqi@taobao.com</t>
+  </si>
+  <si>
+    <t>湖南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈文婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianqi@taobao.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东华大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹敏佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>caominyou@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王依婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈婉璇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131234@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴美玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子科技大学成都学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡依婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianxian@taobao.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨欣宇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hilisyoung@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方民族大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林家纶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39123@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑昌梦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">北京邮电大学 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张瑞群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国传媒大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2345 555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪紫芬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邓家伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr@500d.me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢佩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任郁文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同济大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林石美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naisen.me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑雅茜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 哈尔滨工业大学 </t>
+  </si>
+  <si>
+    <t>胡泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naisen.com</t>
+  </si>
+  <si>
+    <t>中山大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈怡盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海交通大学</t>
+  </si>
+  <si>
+    <t>林盈威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南开大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林志嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naisen.com</t>
+  </si>
+  <si>
+    <t>naisen.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF3F434E"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金华职业技术学院</t>
+    </r>
+  </si>
+  <si>
+    <t>大专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李秀玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naisen.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王彦霖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西工业职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶惟芷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中国传媒大学 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137 8888 6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑星钰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">新疆农业职业技术学院 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱贞伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 长沙民政职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姚扬云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188 0000 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaoyangyun@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中国传媒大学</t>
+  </si>
+  <si>
+    <t>涂武盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hr@naisen.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">滨州职业学院 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">王雅顺 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138 0000 8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">江苏建筑职业技术学院 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐欣仪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>188 8888 6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 河北工业职业技术学院    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service@500d,me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈政圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京医学高等专科学校 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李淑淑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奈森科技大学</t>
+  </si>
+  <si>
+    <t>南京新港职业学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄莉秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州市轻工职业学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林雅慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service@500d.me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈育福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office@microsoft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市对外贸易学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">	中专</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">吴惠雯 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市国际艺术学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>詹允坚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">赖淑珍 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xianxian@taobao.com</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京金隅科技学校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙职业技术学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONTACT@YOURDOMAIN.COM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赖淑珍</t>
+  </si>
+  <si>
+    <t>中专</t>
+  </si>
+  <si>
+    <t>长沙职业技术学院</t>
+  </si>
+  <si>
+    <t>李凯婷</t>
+  </si>
+  <si>
+    <t>13912@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海市经济管理学校</t>
+  </si>
+  <si>
+    <t>林承辰</t>
+  </si>
+  <si>
+    <t>123456@.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135XXXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南新技术应用学校</t>
+  </si>
+  <si>
+    <t>刘亭宝</t>
+  </si>
+  <si>
+    <t>1234567@123.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南传媒学校</t>
+  </si>
+  <si>
+    <t>宋慧元</t>
+  </si>
+  <si>
+    <t>Yourname@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章丘中等职业学校</t>
+  </si>
+  <si>
+    <t>赖俊军</t>
+  </si>
+  <si>
+    <t>123456@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+  </si>
+  <si>
+    <t>荆彦璋</t>
+  </si>
+  <si>
+    <t>224438898qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138 0013 8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油大学</t>
+  </si>
+  <si>
+    <t>白怡均</t>
+  </si>
+  <si>
+    <t>4564646@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国海洋大学</t>
+  </si>
+  <si>
+    <t>linzixing@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135 0013 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复旦大学</t>
+  </si>
+  <si>
+    <t>连书忠</t>
+  </si>
+  <si>
+    <t>188 000 000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山大学</t>
+  </si>
+  <si>
+    <t>余仪礼</t>
+  </si>
+  <si>
+    <t>华南理工大学</t>
+  </si>
+  <si>
+    <t>袁哲仪</t>
+  </si>
+  <si>
+    <t>500d@139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137 0000 8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南开大学</t>
+  </si>
+  <si>
+    <t>叶怡财</t>
+  </si>
+  <si>
+    <t>224434568@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津大学</t>
+  </si>
+  <si>
+    <t>冯雅筑</t>
+  </si>
+  <si>
+    <t>nesson.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州大学</t>
+  </si>
+  <si>
+    <t>吴惠美</t>
+  </si>
+  <si>
+    <t>you@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京邮电大学</t>
+  </si>
+  <si>
+    <t>何佳慧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naisen.com	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人民大学</t>
+  </si>
+  <si>
+    <t>李伦圣</t>
+  </si>
+  <si>
+    <t>12345@docer.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345XXXXXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门大学</t>
+  </si>
+  <si>
+    <t>彭正仁</t>
+  </si>
+  <si>
+    <t>1234567@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华中科技大学</t>
+  </si>
+  <si>
+    <t>刘小紫</t>
+  </si>
+  <si>
+    <t>123123@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南大学</t>
+  </si>
+  <si>
+    <t>温燕达</t>
+  </si>
+  <si>
+    <t>naisen@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州大学</t>
+  </si>
+  <si>
+    <t>刘佳雨</t>
+  </si>
+  <si>
+    <t>888888@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大专</t>
+  </si>
+  <si>
+    <t>陕西工业职业技术学院</t>
+  </si>
+  <si>
+    <t>林怡紫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> healthyyang@yeah.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴婷婷</t>
+  </si>
+  <si>
+    <t>youremailgmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央财经大学</t>
+  </si>
+  <si>
+    <t>杨怡君</t>
+  </si>
+  <si>
+    <t>北京清华大学</t>
+  </si>
+  <si>
+    <t>黄康刚</t>
+  </si>
+  <si>
+    <t>12345@123.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京科技大学</t>
+  </si>
+  <si>
+    <t>林辰</t>
+  </si>
+  <si>
+    <t>yourname@163.cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安电子科技大学</t>
+  </si>
+  <si>
+    <t>沈慧美</t>
+  </si>
+  <si>
+    <t>myemail@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海海洋大学</t>
+  </si>
+  <si>
+    <t>吴佩霖</t>
+  </si>
+  <si>
+    <t>yourname@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>139-1234-0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南中医药大学</t>
+  </si>
+  <si>
+    <t>张伟杰</t>
+  </si>
+  <si>
+    <t>123456qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京语言大学</t>
+  </si>
+  <si>
+    <t>刘友淳</t>
+  </si>
+  <si>
+    <t>22448900@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138-0000-3890</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首都师范大学</t>
+  </si>
+  <si>
+    <t>杜怡</t>
+  </si>
+  <si>
+    <t>officeplus@microsoft.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京城市学院</t>
+  </si>
+  <si>
+    <t>潘孝东</t>
+  </si>
+  <si>
+    <t>xiaohen@189.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138 9999 9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央戏曲学院</t>
+  </si>
+  <si>
+    <t>周志合</t>
+  </si>
+  <si>
+    <t>service@163.co</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 深圳大学</t>
+  </si>
+  <si>
+    <t>刘力霞</t>
+  </si>
+  <si>
+    <t>首都经济贸易大学</t>
+  </si>
+  <si>
+    <t>林钰婷</t>
+  </si>
+  <si>
+    <t>zxj2015@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138-0013-8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京师范大学</t>
+  </si>
+  <si>
+    <t>jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张吉惟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangjiwei@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营助理,总经理助理,部长助理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -77,7 +980,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +993,38 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF3F434E"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -124,19 +1059,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -453,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CFEC6A-1703-406C-AFEA-DAEB77A50E32}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,68 +1408,2369 @@
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="19.875" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="5" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
+    <col min="9" max="9" width="42.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="5">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="5">
+        <v>13899999999</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="5">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E6" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13912341210</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13912341210</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>13212345678</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="1">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>13124567890</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="1">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13123456789</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>13912341234</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1">
+        <v>13891898756</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1">
+        <v>6</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1">
+        <v>36</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1">
+        <v>13123456789</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1">
+        <v>6</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1">
+        <v>26</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="1">
+        <v>3</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="1">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>39</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="1">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="1">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="1">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="1">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1">
+        <v>11</v>
+      </c>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1">
+        <v>36</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13500000000</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="1">
+        <v>7</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>45</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="1">
+        <v>13500000000</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="1">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1">
+        <v>18800135000</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1">
+        <v>11</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="1">
+        <v>24</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13800138000</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1">
+        <v>4</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>48</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="1">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1">
+        <v>135003135000</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="1">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>49</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="1">
+        <v>188888888</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="1">
+        <v>6</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="1">
+        <v>18888888</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1">
+        <v>188888888</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>52</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="1">
+        <v>7</v>
+      </c>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>54</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="1">
+        <v>24</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>55</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="1">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" s="1">
+        <v>6</v>
+      </c>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="1">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" s="1">
+        <v>18000000000</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" s="1">
+        <v>7</v>
+      </c>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="1">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H40" s="1">
+        <v>6</v>
+      </c>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="1">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="1">
+        <v>11</v>
+      </c>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>59</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="1">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1888008000</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="1">
+        <v>10</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="1">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="1">
+        <v>18800000000</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" s="1">
+        <v>6</v>
+      </c>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="1">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="1">
+        <v>13500135000</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>63</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="1">
+        <v>23</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" s="1">
+        <v>13800111000</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="1">
+        <v>8</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>64</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="1">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="1">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>65</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1">
+        <v>28</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9</v>
+      </c>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>66</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" s="1">
+        <v>27</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>66</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="1">
+        <v>27</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6</v>
+      </c>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>67</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1">
+        <v>27</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="1">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>68</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1">
+        <v>25</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" s="1">
+        <v>7</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>69</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="1">
+        <v>26</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="1">
+        <v>13999999999</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="1">
+        <v>7</v>
+      </c>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>70</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="1">
+        <v>29</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="1">
+        <v>10</v>
+      </c>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>71</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="1">
+        <v>26</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E55" s="1">
+        <v>15888888888</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="1">
+        <v>3</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="1">
+        <v>29</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" s="1">
+        <v>7</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>73</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="1">
+        <v>34</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1380000020</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" s="1">
+        <v>12</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>74</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="1">
+        <v>28</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="1">
+        <v>6</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>75</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" s="1">
+        <v>32</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="1">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>76</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="1">
+        <v>34</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="1">
+        <v>188800135000</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="1">
+        <v>11</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>77</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="1">
+        <v>31</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H61" s="1">
+        <v>8</v>
+      </c>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>78</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="1">
+        <v>30</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" s="1">
+        <v>18800145000</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H62" s="1">
+        <v>4</v>
+      </c>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="1">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="1">
+        <v>18888888888</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H63" s="1">
+        <v>11</v>
+      </c>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>80</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="1">
+        <v>30</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H64" s="1">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>81</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="1">
+        <v>28</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1888888000</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>82</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="1">
+        <v>26</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H66" s="1">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>83</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="1">
+        <v>25</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E67" s="1">
+        <v>12345678901</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" s="1">
+        <v>2</v>
+      </c>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>84</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="1">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="1">
+        <v>123123123123</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" s="1">
+        <v>7</v>
+      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>85</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="1">
+        <v>27</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="1">
+        <v>13988888888</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>86</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="1">
+        <v>30</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1888888888</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" s="1">
+        <v>9</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>87</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="1">
+        <v>26</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E71" s="1">
+        <v>137397777777</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>88</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="1">
+        <v>29</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="1">
+        <v>12301230123</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" s="1">
+        <v>4</v>
+      </c>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>89</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="1">
+        <v>27</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="1">
+        <v>13912345678</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H73" s="1">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>90</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="1">
+        <v>29</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="1">
+        <v>17345678900</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" s="1">
+        <v>8</v>
+      </c>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>91</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="1">
+        <v>25</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="1">
+        <v>13910345678</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H75" s="1">
+        <v>2</v>
+      </c>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>92</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="1">
+        <v>30</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="1">
+        <v>13912220080</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H76" s="1">
+        <v>7</v>
+      </c>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>93</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="1">
+        <v>25</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2</v>
+      </c>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>94</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="1">
+        <v>26</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E78" s="1">
+        <v>15031009888</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H78" s="1">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>95</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" s="1">
+        <v>32</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H79" s="1">
+        <v>11</v>
+      </c>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>96</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="1">
+        <v>30</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="1">
+        <v>18010001000</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" s="1">
+        <v>9</v>
+      </c>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>97</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="1">
+        <v>23</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H81" s="1">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>98</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C82" s="1">
+        <v>27</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1350013500</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H82" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>99</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="1">
+        <v>28</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E83" s="1">
+        <v>18010001000</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H83" s="1">
+        <v>2</v>
+      </c>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>100</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="1">
+        <v>31</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>13801138823</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4</v>
-      </c>
+      <c r="G84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H84" s="1">
+        <v>9</v>
+      </c>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D106D109-2EB9-4FE4-89BC-DDA69D86019A}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{E8E89501-82AB-4315-9070-58DF4D125BC3}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{3E321188-7709-4A30-AA8B-CFC497C5A7A3}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{18A92DDF-9019-4A41-858F-CC2D8B66E6D9}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{C567F677-B793-4B38-9A17-A4A750BD6A00}"/>
+    <hyperlink ref="D11" r:id="rId5" xr:uid="{F23FABB7-95F8-4EA3-A117-997A70041118}"/>
+    <hyperlink ref="D12" r:id="rId6" xr:uid="{D49A2949-62A3-434E-B252-9A6FE52E0F1B}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{9A58B47C-D795-404F-896D-E95A05B9F302}"/>
+    <hyperlink ref="D14" r:id="rId8" xr:uid="{11A4A657-9AA3-4FC4-A468-8548C4BA58B9}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{BDFB2D34-651E-4933-A372-AB93AFD40D01}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{7426B059-130B-47F1-9748-A06CEC6B31F8}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{E31553E3-6057-47ED-9259-0DCE9C5167C2}"/>
+    <hyperlink ref="D18" r:id="rId12" xr:uid="{B0742BE8-5E74-459F-9EF0-C80B9C16A0EC}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{F41E07AE-146C-4BF4-864C-D0E0F927D88B}"/>
+    <hyperlink ref="D20" r:id="rId14" display="nesson@91muban.cn" xr:uid="{FAA959AA-D3E4-4F0F-B23C-433C468794F9}"/>
+    <hyperlink ref="D21" r:id="rId15" xr:uid="{20C8BDC2-200C-4B68-B983-EA59C587A0DF}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{05DD263A-CF6B-4A78-9D06-7C233B027AF8}"/>
+    <hyperlink ref="D23" r:id="rId17" xr:uid="{B4F320B2-183F-40A9-8549-1B2ED1AF8FB6}"/>
+    <hyperlink ref="D24" r:id="rId18" xr:uid="{C5BC0CF1-A537-4CC6-BF82-DE1AA8DA666F}"/>
+    <hyperlink ref="D25" r:id="rId19" xr:uid="{3A71E244-CC08-4FC0-ABEE-4C0445190AE3}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{A7B795B4-2DFC-41D9-B1EE-35E1769F07F0}"/>
+    <hyperlink ref="D29" r:id="rId21" xr:uid="{49319154-6034-4AE4-97E2-F899A0BB2FE3}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{1B0A262B-4B13-4BC0-87B6-AB74CCC3EC2B}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{59EF1CBE-B323-41E5-8960-653358F395E1}"/>
+    <hyperlink ref="D36" r:id="rId24" xr:uid="{24DD2D23-CE54-40C7-A39E-F1217658C08F}"/>
+    <hyperlink ref="D37" r:id="rId25" xr:uid="{DD5852FA-747C-48ED-96EC-9895908C37A2}"/>
+    <hyperlink ref="D38" r:id="rId26" xr:uid="{C571CCC4-6B09-4BC8-82EC-3920F48F0384}"/>
+    <hyperlink ref="D39" r:id="rId27" xr:uid="{057D298C-19C5-4389-8885-21D7C48CBF74}"/>
+    <hyperlink ref="D40" r:id="rId28" xr:uid="{5B81076F-35F5-44DB-AF92-9AA2D05747C1}"/>
+    <hyperlink ref="D42" r:id="rId29" xr:uid="{AC55A691-6A9A-4608-B6D0-78C41F773BAA}"/>
+    <hyperlink ref="D45" r:id="rId30" xr:uid="{6A0A909B-BB9B-4F91-B0C8-660FF34E4CAD}"/>
+    <hyperlink ref="D46" r:id="rId31" xr:uid="{FD2CE86E-5A24-49F1-AD73-ADE7F16162A0}"/>
+    <hyperlink ref="D47" r:id="rId32" xr:uid="{A4545768-93AE-478E-A03D-3724BD62A33B}"/>
+    <hyperlink ref="D48" r:id="rId33" xr:uid="{509D9323-BC20-49E1-8B17-578442677E3B}"/>
+    <hyperlink ref="D49" r:id="rId34" xr:uid="{2D7B1886-DE81-4FBB-B6D5-6AF8EC9CE3A8}"/>
+    <hyperlink ref="D50" r:id="rId35" xr:uid="{8D75815F-A62B-472D-8D9E-DACAF86B6688}"/>
+    <hyperlink ref="D53" r:id="rId36" xr:uid="{A9E1344A-3210-4B36-83D4-3214F47B980E}"/>
+    <hyperlink ref="D54" r:id="rId37" xr:uid="{17C0FC79-182E-4ADE-836B-9FCC7493DBDB}"/>
+    <hyperlink ref="D55" r:id="rId38" xr:uid="{0ECC8850-71AC-40BE-A312-9D10128F64A1}"/>
+    <hyperlink ref="D57" r:id="rId39" xr:uid="{11016AA1-4614-4DE7-A4C2-7888331DC85A}"/>
+    <hyperlink ref="D58" r:id="rId40" xr:uid="{B0237F83-4B6E-4625-8D75-D090C2705D7B}"/>
+    <hyperlink ref="D61" r:id="rId41" xr:uid="{85DC96F2-5D70-44FE-8FAC-457BBD5C7311}"/>
+    <hyperlink ref="D62" r:id="rId42" xr:uid="{2BCF1315-2065-4BB9-9C8B-00EC1D9B641A}"/>
+    <hyperlink ref="D64" r:id="rId43" xr:uid="{79686383-2B9E-49AF-A0E0-88039AC04B73}"/>
+    <hyperlink ref="D66" r:id="rId44" xr:uid="{67FC19C2-73AF-434F-B422-E3E12CE6A7E0}"/>
+    <hyperlink ref="D67" r:id="rId45" xr:uid="{56956C85-2A5F-466E-A930-D8D65A0212AD}"/>
+    <hyperlink ref="D68" r:id="rId46" xr:uid="{6D9DA158-6E70-42A3-8056-6DCA8EFD29A4}"/>
+    <hyperlink ref="D69" r:id="rId47" xr:uid="{D607D313-255C-4B43-850E-8D90193BFBDA}"/>
+    <hyperlink ref="D70" r:id="rId48" xr:uid="{62802897-6809-4660-B501-43583A8EDB17}"/>
+    <hyperlink ref="D73" r:id="rId49" xr:uid="{711D66A8-1743-435C-A5FE-5FB4C3938D47}"/>
+    <hyperlink ref="D74" r:id="rId50" xr:uid="{5FA33A62-FAAF-413B-89F4-0AD54C43288F}"/>
+    <hyperlink ref="D75" r:id="rId51" xr:uid="{B3E579C8-3D3B-496E-AB58-1E26E0C01466}"/>
+    <hyperlink ref="D76" r:id="rId52" xr:uid="{117A0FB3-2C29-4212-BE2D-76EDC47FF814}"/>
+    <hyperlink ref="D77" r:id="rId53" xr:uid="{81E73BA8-5CD0-441D-AA71-9CF6081A7E77}"/>
+    <hyperlink ref="D79" r:id="rId54" xr:uid="{EEC02859-7F9A-4510-823B-C0A65FD3D86F}"/>
+    <hyperlink ref="D80" r:id="rId55" xr:uid="{80932C0A-852A-4D6E-897A-6D122FE22D55}"/>
+    <hyperlink ref="D81" r:id="rId56" xr:uid="{609DDE83-3C20-4E8F-88A3-C53CABEA27C1}"/>
+    <hyperlink ref="D82" r:id="rId57" xr:uid="{FC956289-B7F8-4888-9E78-F83CFC26BCAA}"/>
+    <hyperlink ref="D83" r:id="rId58" xr:uid="{96E4FA02-FD29-4C60-A5C0-6FBDBD96CCC2}"/>
+    <hyperlink ref="D84" r:id="rId59" xr:uid="{1BD08D8A-A83C-47BF-BA85-C1C62E4F78DE}"/>
+    <hyperlink ref="D52" r:id="rId60" xr:uid="{00A77BB4-25CE-4477-87A0-3FC1F56CD436}"/>
+    <hyperlink ref="D51" r:id="rId61" xr:uid="{84AA39C4-B562-47AC-A422-4220D54DF271}"/>
+    <hyperlink ref="D2" r:id="rId62" xr:uid="{B7386E1D-7311-4B15-AC25-A206C9B626FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>